--- a/otros/excel.xlsx
+++ b/otros/excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Sitio</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>000webhost</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>ezegal23</t>
   </si>
 </sst>
 </file>
@@ -418,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,12 +481,24 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/otros/excel.xlsx
+++ b/otros/excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Sitio</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>ezegal23</t>
+  </si>
+  <si>
+    <t>interno claxson</t>
   </si>
 </sst>
 </file>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,6 +495,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>3470</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
